--- a/Instances/K0014313_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue.xlsx
+++ b/Instances/K0014313_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>LostSale</t>
+  </si>
+  <si>
+    <t>VariableCosts</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,7 +952,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,8 +977,11 @@
       <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,13 +1004,16 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>16.63514867036239</v>
+        <v>21.00793494348941</v>
       </c>
       <c r="I2" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1041,11 @@
       <c r="I3" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1061,8 +1073,11 @@
       <c r="I4" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1090,8 +1105,11 @@
       <c r="I5" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,8 +1137,11 @@
       <c r="I6" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1169,11 @@
       <c r="I7" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,8 +1201,11 @@
       <c r="I8" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1206,8 +1233,11 @@
       <c r="I9" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1235,8 +1265,11 @@
       <c r="I10" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,6 +1296,9 @@
       </c>
       <c r="I11" t="n">
         <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1356,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1391,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1426,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1461,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1496,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1531,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1566,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1601,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1636,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1671,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1706,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1741,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1776,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1811,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1846,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1916,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1951,7 +1987,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1986,7 +2022,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2021,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2056,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2177,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-75.75</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
@@ -2212,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-25.25</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
@@ -2282,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.375</v>
+        <v>11.25</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2317,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.5625</v>
+        <v>18.9375</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2352,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.75</v>
+        <v>19.03125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2387,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.015625</v>
+        <v>25.078125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2422,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.9453125</v>
+        <v>25.4296875</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2457,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0859375</v>
+        <v>23.87109375</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2492,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.572265625</v>
+        <v>25.796875</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2527,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.6455078125</v>
+        <v>28.88671875</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2562,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.4521484375</v>
+        <v>26.19873046875</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2597,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.978515625</v>
+        <v>23.227294921875</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2632,7 +2668,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7388916015625</v>
+        <v>24.488037109375</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2667,7 +2703,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4932861328125</v>
+        <v>26.74346923828125</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2702,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.24667358398438</v>
+        <v>23.74710083007812</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2772,7 +2808,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22.99929809570312</v>
+        <v>26.99917602539062</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2807,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.49958038330078</v>
+        <v>26.99958801269531</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2842,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22.99982452392578</v>
+        <v>25.99980163574219</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2877,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.74990940093994</v>
+        <v>24.99990463256836</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2912,7 +2948,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24.74995279312134</v>
+        <v>20.74996042251587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
